--- a/转json/Tables/Functions.xlsx
+++ b/转json/Tables/Functions.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\Go\转json\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53B3ADB-A7E0-4727-880F-81E9FAEA3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA08D3F-5D80-4342-B2E5-8CB644BB34AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -202,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -212,7 +211,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -493,7 +491,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +570,7 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -580,7 +578,7 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -588,7 +586,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -596,7 +594,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -604,7 +602,7 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -612,7 +610,7 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
